--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_7_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_7_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.3100000000002</v>
+        <v>23.2600000000002</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.67580833905684e-16</v>
+        <v>1.727973579183123e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>43.12852154863143</v>
+        <v>40.07921578639156</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[38.79568132001848, 47.46136177724437]</t>
+          <t>[35.270944285710726, 44.88748728707239]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.46544762419704</v>
+        <v>1.352237078121733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3522370781217328, 1.5786581702723472]</t>
+          <t>[1.2264475824825016, 1.478026573760964]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.62191349651996</v>
+        <v>53.16994751845387</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.83342993157942, 56.4103970614605]</t>
+          <t>[50.295522025814435, 56.0443730110933]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.87333333333349</v>
+        <v>18.25409409409425</v>
       </c>
       <c r="X2" t="n">
-        <v>17.45333333333349</v>
+        <v>17.78842842842858</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.29333333333349</v>
+        <v>18.71975975975992</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.80000000000013</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.67580833905684e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1159867049330529</v>
-      </c>
+        <v>1.727973579183123e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>43.98256644019282</v>
+        <v>45.02081520109486</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[39.53743588547485, 48.42769699491079]</t>
+          <t>[40.526411994864475, 49.515218407325236]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1132105460753081</v>
+        <v>-0.08805264694746207</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.22642109215061534, -8.881784197001252e-16]</t>
+          <t>[-0.2012631930227693, 0.025157899127845162]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.0500000000000087</v>
+        <v>0.127026231209848</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0500000000000087</v>
+        <v>0.127026231209848</v>
       </c>
       <c r="S3" t="n">
-        <v>52.35348592537957</v>
+        <v>54.24218876576025</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.429436003771585, 55.27753584698756]</t>
+          <t>[51.33167675739443, 57.15270077412606]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4108108108108119</v>
+        <v>0.3193793793793844</v>
       </c>
       <c r="X3" t="n">
-        <v>1.221245327087672e-15</v>
+        <v>-0.09125125125124611</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8216216216216227</v>
+        <v>0.730010010010015</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_7_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_7_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.2600000000002</v>
+        <v>23.2500000000002</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.727973579183123e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1.704757043570298e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.01367585025331441</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>40.07921578639156</v>
+        <v>45.48963176462</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.270944285710726, 44.88748728707239]</t>
+          <t>[41.02225775157231, 49.95700577766769]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.352237078121733</v>
+        <v>1.352237078121732</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2264475824825016, 1.478026573760964]</t>
+          <t>[1.2390265320464247, 1.4654476241970391]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.16994751845387</v>
+        <v>53.21748794646548</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.295522025814435, 56.0443730110933]</t>
+          <t>[50.453112442022714, 55.981863450908236]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.25409409409425</v>
+        <v>18.2462462462464</v>
       </c>
       <c r="X2" t="n">
-        <v>17.78842842842858</v>
+        <v>17.82732732732748</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.71975975975992</v>
+        <v>18.66516516516532</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.79000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.727973579183123e-16</v>
+        <v>1.704757043570298e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.02081520109486</v>
+        <v>49.14745905345418</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[40.526411994864475, 49.515218407325236]</t>
+          <t>[44.32229976598742, 53.97261834092095]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +682,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.08805264694746207</v>
+        <v>-0.2012631930227693</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.2012631930227693, 0.025157899127845162]</t>
+          <t>[-0.3018947895341544, -0.1006315965113842]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.127026231209848</v>
+        <v>9.990338628451667e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.127026231209848</v>
+        <v>9.990338628451667e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>54.24218876576025</v>
+        <v>53.31037817728529</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[51.33167675739443, 57.15270077412606]</t>
+          <t>[50.43775096382885, 56.18300539074174]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3193793793793844</v>
+        <v>0.7293693693693726</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.09125125125124611</v>
+        <v>0.3646846846846848</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.730010010010015</v>
+        <v>1.09405405405406</v>
       </c>
     </row>
   </sheetData>
